--- a/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>AT</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Low convenience single table with varieties and mintages and photos</t>
+  </si>
+  <si>
+    <t>Rev: old map of Europe</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -384,6 +390,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,8 +405,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -721,7 +730,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -738,27 +747,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="24"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
@@ -780,7 +789,9 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10">
         <v>6880000</v>
@@ -824,7 +835,9 @@
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10">
         <v>8905000</v>
@@ -869,7 +882,9 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10">
         <v>4910000</v>
@@ -938,7 +953,9 @@
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10">
         <v>11300000</v>
@@ -1006,7 +1023,9 @@
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10">
         <v>2500000</v>
@@ -1026,7 +1045,9 @@
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10">
         <v>16000000</v>
@@ -1070,7 +1091,9 @@
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10">
         <v>18100100</v>

--- a/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
@@ -41,7 +41,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Münze Österreich (Vienna mint)</t>
+          <t>Monnaie royale de Belgique
+ (Belgium mint)</t>
         </r>
       </text>
     </comment>
@@ -56,7 +57,8 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Münze Österreich (Vienna mint)</t>
+          <t>Monnaie royale de Belgique
+ (Belgium mint)</t>
         </r>
       </text>
     </comment>
@@ -65,10 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
-  <si>
-    <t>AT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Year</t>
   </si>
@@ -94,9 +93,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>50th Anniversary of the Austrian State Treaty</t>
-  </si>
-  <si>
     <t>50th Anniversary - Signing of the Treaty of Rome</t>
   </si>
   <si>
@@ -109,12 +105,6 @@
     <t>30th Anniversary - European Union flag</t>
   </si>
   <si>
-    <t>200th Anniversary - National Bank</t>
-  </si>
-  <si>
-    <t>100th Anniversary - Austria</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -148,17 +138,71 @@
     <t>Low convenience single table with varieties and mintages and photos</t>
   </si>
   <si>
-    <t>Rev: old map of Europe</t>
-  </si>
-  <si>
-    <t>Rev: new map of Europe</t>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Belgium-Luxembourg Economic Union</t>
+  </si>
+  <si>
+    <t>Renovation of the Atomium in Brussels</t>
+  </si>
+  <si>
+    <t>60th Anniversary - Universal Declaration of Human Rights</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Birth of Loius Braille</t>
+  </si>
+  <si>
+    <t>Belgian Presidency of the Council of the European Union</t>
+  </si>
+  <si>
+    <t>100th Anniversary - International Women's Day</t>
+  </si>
+  <si>
+    <t>75th Anniversary - Queen Elisabeth Music Competition</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Royal Meteorological Institute</t>
+  </si>
+  <si>
+    <t>100th Anniversary - Great War</t>
+  </si>
+  <si>
+    <t>150th Anniversary - Belgian Red Cross</t>
+  </si>
+  <si>
+    <t>European Year for Development</t>
+  </si>
+  <si>
+    <t>Team Belgium</t>
+  </si>
+  <si>
+    <t>Child Focus</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Foundation of University of Liège</t>
+  </si>
+  <si>
+    <t>200th Anniversary - Foundation of Ghent University</t>
+  </si>
+  <si>
+    <t>50th Anniversary - Student Unrest in 1968</t>
+  </si>
+  <si>
+    <t>50th Anniversary - Launched satellite ESRO-2B</t>
+  </si>
+  <si>
+    <t>450th Anniversary - Death of Pieter Bruegel the Elder</t>
+  </si>
+  <si>
+    <t>25th Anniversary - Creation of the European Monetary Institute (EMI)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -215,8 +259,23 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,8 +312,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -332,13 +397,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -352,9 +432,6 @@
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -369,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -393,6 +467,9 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -405,8 +482,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -414,7 +498,23 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -453,9 +553,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="4"/>
+    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -724,411 +824,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="12" customWidth="1"/>
     <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
+        <v>2005</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25">
+        <v>2006</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="25">
+        <v>2007</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f t="shared" ref="G5:G25" si="1">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25">
+        <v>2008</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="25">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
+        <v>5011000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9">
+        <v>2020000</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9">
+        <v>1750000</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9">
+        <v>287500</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="28">
+        <v>235000</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="28">
+        <v>412500</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="28">
+        <v>325000</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9">
+        <v>1020000</v>
+      </c>
+      <c r="F19" s="10">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
-        <v>2005</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10">
-        <v>6880000</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12" t="str">
-        <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10">
-        <v>8905000</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>2009</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10">
-        <v>4910000</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
-        <v>2012</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10">
-        <v>11300000</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10">
-        <v>2500000</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
-        <v>16000000</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="G19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="25">
         <v>2017</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="28">
+        <v>200000</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="28">
+        <v>200000</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25">
         <v>2018</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10">
-        <v>18100100</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="28">
+        <v>257500</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="28">
+        <v>257500</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="25">
         <v>2019</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="B24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="28">
+        <v>155000</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="25">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="28">
+        <v>155000</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1136,12 +1353,46 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F17">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F15 F19">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F17">
+  <conditionalFormatting sqref="F3:F15 F19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F18">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F25">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1167,7 +1418,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,58 +1429,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="17" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="15">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>25th Anniversary - Creation of the European Monetary Institute (EMI)</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>Rev: old map of Europe</t>
   </si>
 </sst>
 </file>
@@ -470,18 +476,6 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,6 +485,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -499,6 +505,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -514,15 +529,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -553,9 +559,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -830,7 +836,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -847,16 +853,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -866,8 +872,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -883,13 +889,15 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="22">
         <v>2005</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9">
         <v>6000000</v>
@@ -898,18 +906,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3:G17" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G4" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25">
+      <c r="A4" s="21">
         <v>2006</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9">
         <v>5000000</v>
@@ -923,13 +933,15 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="25">
+      <c r="A5" s="21">
         <v>2007</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9">
         <v>5000000</v>
@@ -944,13 +956,15 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25">
+      <c r="A6" s="21">
         <v>2008</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9">
         <v>5000000</v>
@@ -964,13 +978,15 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25">
+      <c r="A7" s="21">
         <v>2009</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9">
         <v>5011000</v>
@@ -984,13 +1000,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25">
+      <c r="A8" s="21">
         <v>2009</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="9">
         <v>5000000</v>
@@ -1004,13 +1022,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25">
+      <c r="A9" s="21">
         <v>2010</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="9">
         <v>5000000</v>
@@ -1025,13 +1045,15 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25">
+      <c r="A10" s="21">
         <v>2011</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9">
         <v>5000000</v>
@@ -1045,13 +1067,15 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25">
+      <c r="A11" s="21">
         <v>2012</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="9">
         <v>5000000</v>
@@ -1065,13 +1089,15 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25">
+      <c r="A12" s="21">
         <v>2012</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="9">
         <v>5000000</v>
@@ -1085,13 +1111,15 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25">
+      <c r="A13" s="21">
         <v>2013</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="9">
         <v>2020000</v>
@@ -1105,13 +1133,15 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25">
+      <c r="A14" s="21">
         <v>2014</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="9">
         <v>1750000</v>
@@ -1125,13 +1155,15 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25">
+      <c r="A15" s="21">
         <v>2014</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="9">
         <v>287500</v>
@@ -1145,15 +1177,17 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25">
+      <c r="A16" s="21">
         <v>2015</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <v>235000</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -1165,15 +1199,17 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25">
+      <c r="A17" s="21">
         <v>2015</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="28">
+      <c r="E17" s="24">
         <v>412500</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -1185,15 +1221,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25">
+      <c r="A18" s="21">
         <v>2016</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="28">
+      <c r="E18" s="24">
         <v>325000</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -1205,13 +1243,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="25">
+      <c r="A19" s="21">
         <v>2016</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="9">
         <v>1020000</v>
@@ -1225,15 +1265,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="25">
+      <c r="A20" s="21">
         <v>2017</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="28">
+      <c r="E20" s="24">
         <v>200000</v>
       </c>
       <c r="F20" s="10" t="s">
@@ -1245,15 +1287,17 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25">
+      <c r="A21" s="21">
         <v>2017</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="28">
+      <c r="E21" s="24">
         <v>200000</v>
       </c>
       <c r="F21" s="10" t="s">
@@ -1265,15 +1309,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25">
+      <c r="A22" s="21">
         <v>2018</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="28">
+      <c r="E22" s="24">
         <v>257500</v>
       </c>
       <c r="F22" s="10" t="s">
@@ -1285,15 +1331,17 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="25">
+      <c r="A23" s="21">
         <v>2018</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="28">
+      <c r="E23" s="24">
         <v>257500</v>
       </c>
       <c r="F23" s="10" t="s">
@@ -1305,15 +1353,17 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="25">
+      <c r="A24" s="21">
         <v>2019</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="28">
+      <c r="E24" s="24">
         <v>155000</v>
       </c>
       <c r="F24" s="10" t="s">
@@ -1325,15 +1375,17 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="25">
+      <c r="A25" s="21">
         <v>2019</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="28">
+      <c r="E25" s="24">
         <v>155000</v>
       </c>
       <c r="F25" s="10" t="s">
@@ -1345,7 +1397,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="27"/>
+      <c r="E26" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1371,7 +1423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1388,7 +1440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F25">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
@@ -836,7 +836,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9">

--- a/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Year</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>Rev: old map of Europe</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italian edge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch edge </t>
   </si>
 </sst>
 </file>
@@ -424,7 +439,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -485,6 +500,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,15 +522,14 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -538,6 +555,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -552,16 +586,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="7"/>
+    <tableColumn id="2" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -830,13 +864,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -853,16 +887,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
@@ -872,8 +906,8 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -950,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f t="shared" ref="G5:G25" si="1">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G5:G27" si="1">IF(OR(AND(F5&gt;1,F5&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
       <c r="H5" s="2"/>
@@ -1178,61 +1212,65 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="21">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="24">
-        <v>235000</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>7</v>
+      <c r="D16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="9">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
       </c>
       <c r="G16" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G16:G17" si="2">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="24">
-        <v>412500</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>7</v>
+      <c r="D17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
       </c>
       <c r="G17" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="21">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="24">
-        <v>325000</v>
+        <v>235000</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>7</v>
@@ -1244,20 +1282,20 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="9">
-        <v>1020000</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
+      <c r="E19" s="24">
+        <v>412500</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="G19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1266,17 +1304,17 @@
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="24">
-        <v>200000</v>
+        <v>325000</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>7</v>
@@ -1288,20 +1326,20 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="21">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="24">
-        <v>200000</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>7</v>
+      <c r="E21" s="9">
+        <v>1020000</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
       </c>
       <c r="G21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1310,17 +1348,17 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="21">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="24">
-        <v>257500</v>
+        <v>200000</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>7</v>
@@ -1332,17 +1370,17 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="21">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="24">
-        <v>257500</v>
+        <v>200000</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>7</v>
@@ -1354,17 +1392,17 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="21">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="24">
-        <v>155000</v>
+        <v>257500</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>7</v>
@@ -1376,17 +1414,17 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="21">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="24">
-        <v>155000</v>
+        <v>257500</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>7</v>
@@ -1397,7 +1435,51 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E26" s="23"/>
+      <c r="A26" s="21">
+        <v>2019</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="24">
+        <v>155000</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="21">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="24">
+        <v>155000</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1405,12 +1487,46 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F15 F19">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F3:F15 F21">
+    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F15 F19">
+  <conditionalFormatting sqref="F3:F15 F21">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F20">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F27">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1422,12 +1538,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F18">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F18">
+  <conditionalFormatting sqref="F16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1439,12 +1555,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F25">
+  <conditionalFormatting sqref="F17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1464,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1535,17 +1651,41 @@
         <v>22</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Belgium/#EURO#Belgium#Commemorative[2005-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -524,6 +524,15 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -563,15 +572,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -593,9 +593,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="7"/>
-    <tableColumn id="2" name="Link" dataDxfId="6" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="5"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1488,7 +1488,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F15 F21">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1505,7 +1505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F20">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1522,7 +1522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F27">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F22))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1539,7 +1539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1556,7 +1556,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1582,11 +1582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1679,8 +1679,8 @@
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
